--- a/업데이트히스토리_TW.xlsx
+++ b/업데이트히스토리_TW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="13_ncr:1_{7E9F06C8-2719-4032-AE7B-8C097CD0D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA1DF6B1-407D-45D8-9AC4-1878C17924FE}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{7E9F06C8-2719-4032-AE7B-8C097CD0D6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B331D07B-2E70-431A-8814-BCF6287B84BE}"/>
   <bookViews>
     <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -45,26 +45,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>대상패치일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemID0</t>
   </si>
   <si>
-    <t>대상패치일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>230526 업데이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
   </si>
   <si>
     <t>의뢰소 스크롤 분해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>230526 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -113,7 +116,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>길드 컨텐츠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>환영의 미궁 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -128,18 +139,6 @@
   <si>
     <t>요일 던전 드랍 상자 4종 변경
 : 대만 전용 상자에서 국내 상자 ID로 변경(스킬북 추가)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>길드 컨텐츠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,13 +707,13 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
@@ -723,161 +722,161 @@
     <col min="5" max="5" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="C3" s="9"/>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="C4" s="9"/>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="33">
       <c r="A9" s="3"/>
       <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="33">
       <c r="A10" s="3"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -894,15 +893,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1125,29 +1115,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E74B62-2DBD-4C1C-B16B-CC7AC8A4AE77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF651CFF-B26D-4703-AED7-F1DD539C8973}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF651CFF-B26D-4703-AED7-F1DD539C8973}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E74B62-2DBD-4C1C-B16B-CC7AC8A4AE77}"/>
 </file>